--- a/lab2/wykres.xlsx
+++ b/lab2/wykres.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mateusz\Szkola\Studia\V semestr\NAI\lab2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studia\V semestr\NAI\lab2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D036C1DE-57BB-4551-8650-465CFDE7B09C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CBFE4A7-5EBF-41A3-BE2D-F2089E1AB1A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{B2C2D88E-0AE6-4B5F-B2E4-7BE2915833A6}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{B2C2D88E-0AE6-4B5F-B2E4-7BE2915833A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -64,8 +64,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="173" formatCode="0.0000000000"/>
-    <numFmt numFmtId="174" formatCode="0.00000000000"/>
+    <numFmt numFmtId="164" formatCode="0.0000000000"/>
+    <numFmt numFmtId="165" formatCode="0.00000000000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -124,17 +124,17 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -144,10 +144,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="174" formatCode="0.00000000000"/>
+      <numFmt numFmtId="165" formatCode="0.00000000000"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -160,7 +157,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="173" formatCode="0.0000000000"/>
+      <numFmt numFmtId="164" formatCode="0.0000000000"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -173,7 +170,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="173" formatCode="0.0000000000"/>
+      <numFmt numFmtId="164" formatCode="0.0000000000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -259,7 +259,7 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -276,10 +276,8 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="9525" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -323,6 +321,75 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$C$3:$C$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>134261</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>135125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>136004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>135784</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>133606</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>134810</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>139733</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>133226</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>134345</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>133248</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>133811</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>132687</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>132532</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>133431</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>134349</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>133440</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>132330</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>133762</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>136511</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>132707</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
           <c:yVal>
             <c:numRef>
               <c:f>Arkusz1!$B$3:$B$22</c:f>
@@ -392,7 +459,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-0C29-4EC5-B856-BA319432877A}"/>
@@ -414,10 +481,8 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="9525" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -461,6 +526,75 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$H$3:$H$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>137637</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>137399</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>138902</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>136050</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>135420</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>137045</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>136923</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>139618</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>136569</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>138977</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>136733</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>135451</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>135824</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>134798</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>136930</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>136748</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>136502</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>137667</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>138285</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>141091</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
           <c:yVal>
             <c:numRef>
               <c:f>Arkusz1!$G$3:$G$22</c:f>
@@ -530,7 +664,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-0C29-4EC5-B856-BA319432877A}"/>
@@ -552,10 +686,8 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="9525" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -599,6 +731,75 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$M$3:$M$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>130343</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>132688</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>135302</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>132720</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>133278</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>131548</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>131624</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>134175</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>134017</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>131645</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>132610</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>134104</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>132982</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>134749</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>136211</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>132674</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>131250</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>132802</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>131985</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>131098</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
           <c:yVal>
             <c:numRef>
               <c:f>Arkusz1!$L$3:$L$22</c:f>
@@ -668,7 +869,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-0C29-4EC5-B856-BA319432877A}"/>
@@ -725,7 +926,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="pl-PL"/>
-                  <a:t>Numer próby</a:t>
+                  <a:t>Czas próby</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -756,6 +957,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1308,7 +1510,7 @@
             <c:numRef>
               <c:f>Arkusz1!$L$24</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00000000000</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>4.1551708999999995E-5</c:v>
@@ -2745,36 +2947,36 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{85AD4329-2E0D-4444-BFF7-7D198AA190BA}" name="Tabela2" displayName="Tabela2" ref="A2:C22" totalsRowShown="0" headerRowDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{85AD4329-2E0D-4444-BFF7-7D198AA190BA}" name="Tabela2" displayName="Tabela2" ref="A2:C22" totalsRowShown="0" headerRowDxfId="11">
   <autoFilter ref="A2:C22" xr:uid="{85AD4329-2E0D-4444-BFF7-7D198AA190BA}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{84F67B04-55DF-498F-B504-CE715CEB1B27}" name="lp" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{AA92E6E1-9655-444F-97BA-DE7FDF662A55}" name="result" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{A3D2F9A4-5D1C-466E-9EC8-F4A05ACE90B3}" name="time [μs]" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{84F67B04-55DF-498F-B504-CE715CEB1B27}" name="lp" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{AA92E6E1-9655-444F-97BA-DE7FDF662A55}" name="result" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{A3D2F9A4-5D1C-466E-9EC8-F4A05ACE90B3}" name="time [μs]" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{77A340EC-0058-4896-A999-5822E5989850}" name="Tabela3" displayName="Tabela3" ref="F2:H22" totalsRowShown="0" headerRowDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{77A340EC-0058-4896-A999-5822E5989850}" name="Tabela3" displayName="Tabela3" ref="F2:H22" totalsRowShown="0" headerRowDxfId="7">
   <autoFilter ref="F2:H22" xr:uid="{77A340EC-0058-4896-A999-5822E5989850}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{10ED0FBB-C4D5-4E36-AC25-0FBA984ECC20}" name="lp" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{D72340EE-AC6A-4C03-9985-87648AC0AE5C}" name="result" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{78DA8F3E-6406-4EB6-961D-7827A09ED3E8}" name="time [μs]" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{10ED0FBB-C4D5-4E36-AC25-0FBA984ECC20}" name="lp" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{D72340EE-AC6A-4C03-9985-87648AC0AE5C}" name="result" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{78DA8F3E-6406-4EB6-961D-7827A09ED3E8}" name="time [μs]" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{69F22952-30BC-43A6-8139-530BC433ED91}" name="Tabela4" displayName="Tabela4" ref="K2:M22" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{69F22952-30BC-43A6-8139-530BC433ED91}" name="Tabela4" displayName="Tabela4" ref="K2:M22" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="K2:M22" xr:uid="{69F22952-30BC-43A6-8139-530BC433ED91}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{5425A18F-EFEB-4517-878F-22C16F8B4FCB}" name="lp" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{78E6151E-9E33-4C03-91E0-0055E93A704F}" name="result" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{193A238C-6A3A-4F32-9F96-89985F0DC0FE}" name="time [μs]" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{5425A18F-EFEB-4517-878F-22C16F8B4FCB}" name="lp" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{78E6151E-9E33-4C03-91E0-0055E93A704F}" name="result" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{193A238C-6A3A-4F32-9F96-89985F0DC0FE}" name="time [μs]" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3079,44 +3281,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8529B20-DE09-4A39-8207-CF04880066F0}">
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="N56" sqref="N56"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.46484375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.86328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.46484375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.86328125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.53125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="12.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
       <c r="D1" s="3"/>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
       <c r="I1" s="3"/>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
       <c r="N1" s="3"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -3150,11 +3352,11 @@
       </c>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>1.02148E-4</v>
       </c>
       <c r="C3" s="1">
@@ -3165,7 +3367,7 @@
       <c r="F3" s="1">
         <v>1</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="4">
         <v>8.5139100000000006E-6</v>
       </c>
       <c r="H3" s="1">
@@ -3176,7 +3378,7 @@
       <c r="K3" s="1">
         <v>1</v>
       </c>
-      <c r="L3" s="7">
+      <c r="L3" s="6">
         <v>2.2438499999999999E-5</v>
       </c>
       <c r="M3" s="1">
@@ -3184,11 +3386,11 @@
       </c>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>1.238E-4</v>
       </c>
       <c r="C4" s="1">
@@ -3199,7 +3401,7 @@
       <c r="F4" s="1">
         <v>2</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="4">
         <v>3.2631400000000001E-5</v>
       </c>
       <c r="H4" s="1">
@@ -3210,7 +3412,7 @@
       <c r="K4" s="1">
         <v>2</v>
       </c>
-      <c r="L4" s="7">
+      <c r="L4" s="6">
         <v>6.3065300000000001E-6</v>
       </c>
       <c r="M4" s="1">
@@ -3218,11 +3420,11 @@
       </c>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>1.18438E-5</v>
       </c>
       <c r="C5" s="1">
@@ -3233,7 +3435,7 @@
       <c r="F5" s="1">
         <v>3</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="4">
         <v>4.4311699999999998E-4</v>
       </c>
       <c r="H5" s="1">
@@ -3244,7 +3446,7 @@
       <c r="K5" s="1">
         <v>3</v>
       </c>
-      <c r="L5" s="7">
+      <c r="L5" s="6">
         <v>4.3810300000000003E-5</v>
       </c>
       <c r="M5" s="1">
@@ -3252,11 +3454,11 @@
       </c>
       <c r="N5" s="1"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>2.5346200000000001E-5</v>
       </c>
       <c r="C6" s="1">
@@ -3267,7 +3469,7 @@
       <c r="F6" s="1">
         <v>4</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="4">
         <v>3.1102300000000001E-4</v>
       </c>
       <c r="H6" s="1">
@@ -3278,7 +3480,7 @@
       <c r="K6" s="1">
         <v>4</v>
       </c>
-      <c r="L6" s="7">
+      <c r="L6" s="6">
         <v>8.2640399999999996E-5</v>
       </c>
       <c r="M6" s="1">
@@ -3286,11 +3488,11 @@
       </c>
       <c r="N6" s="1"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>2.2294600000000002E-5</v>
       </c>
       <c r="C7" s="1">
@@ -3301,7 +3503,7 @@
       <c r="F7" s="1">
         <v>5</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="4">
         <v>2.39211E-4</v>
       </c>
       <c r="H7" s="1">
@@ -3312,7 +3514,7 @@
       <c r="K7" s="1">
         <v>5</v>
       </c>
-      <c r="L7" s="7">
+      <c r="L7" s="6">
         <v>1.28164E-5</v>
       </c>
       <c r="M7" s="1">
@@ -3320,11 +3522,11 @@
       </c>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>1.9788600000000001E-4</v>
       </c>
       <c r="C8" s="1">
@@ -3335,7 +3537,7 @@
       <c r="F8" s="1">
         <v>6</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="4">
         <v>3.6651199999999999E-5</v>
       </c>
       <c r="H8" s="1">
@@ -3346,7 +3548,7 @@
       <c r="K8" s="1">
         <v>6</v>
       </c>
-      <c r="L8" s="7">
+      <c r="L8" s="6">
         <v>7.0443999999999998E-6</v>
       </c>
       <c r="M8" s="1">
@@ -3354,11 +3556,11 @@
       </c>
       <c r="N8" s="1"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <v>4.7860700000000001E-5</v>
       </c>
       <c r="C9" s="1">
@@ -3369,7 +3571,7 @@
       <c r="F9" s="1">
         <v>7</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="4">
         <v>2.10027E-4</v>
       </c>
       <c r="H9" s="1">
@@ -3380,7 +3582,7 @@
       <c r="K9" s="1">
         <v>7</v>
       </c>
-      <c r="L9" s="7">
+      <c r="L9" s="6">
         <v>3.8138400000000001E-5</v>
       </c>
       <c r="M9" s="1">
@@ -3388,11 +3590,11 @@
       </c>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>2.1834599999999999E-5</v>
       </c>
       <c r="C10" s="1">
@@ -3403,7 +3605,7 @@
       <c r="F10" s="1">
         <v>8</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="4">
         <v>2.4897299999999999E-4</v>
       </c>
       <c r="H10" s="1">
@@ -3414,7 +3616,7 @@
       <c r="K10" s="1">
         <v>8</v>
       </c>
-      <c r="L10" s="7">
+      <c r="L10" s="6">
         <v>2.6571200000000001E-5</v>
       </c>
       <c r="M10" s="1">
@@ -3422,11 +3624,11 @@
       </c>
       <c r="N10" s="1"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="4">
         <v>3.1126199999999998E-4</v>
       </c>
       <c r="C11" s="1">
@@ -3437,7 +3639,7 @@
       <c r="F11" s="1">
         <v>9</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="4">
         <v>3.00215E-4</v>
       </c>
       <c r="H11" s="1">
@@ -3448,7 +3650,7 @@
       <c r="K11" s="1">
         <v>9</v>
       </c>
-      <c r="L11" s="7">
+      <c r="L11" s="6">
         <v>2.0145200000000002E-5</v>
       </c>
       <c r="M11" s="1">
@@ -3456,11 +3658,11 @@
       </c>
       <c r="N11" s="1"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="4">
         <v>3.3789600000000002E-4</v>
       </c>
       <c r="C12" s="1">
@@ -3471,7 +3673,7 @@
       <c r="F12" s="1">
         <v>10</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="4">
         <v>8.6297100000000003E-4</v>
       </c>
       <c r="H12" s="1">
@@ -3482,7 +3684,7 @@
       <c r="K12" s="1">
         <v>10</v>
       </c>
-      <c r="L12" s="7">
+      <c r="L12" s="6">
         <v>3.9097799999999997E-5</v>
       </c>
       <c r="M12" s="1">
@@ -3490,11 +3692,11 @@
       </c>
       <c r="N12" s="1"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="4">
         <v>3.9910499999999997E-6</v>
       </c>
       <c r="C13" s="1">
@@ -3505,7 +3707,7 @@
       <c r="F13" s="1">
         <v>11</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="4">
         <v>3.4744000000000002E-4</v>
       </c>
       <c r="H13" s="1">
@@ -3516,7 +3718,7 @@
       <c r="K13" s="1">
         <v>11</v>
       </c>
-      <c r="L13" s="7">
+      <c r="L13" s="6">
         <v>2.69171E-5</v>
       </c>
       <c r="M13" s="1">
@@ -3524,11 +3726,11 @@
       </c>
       <c r="N13" s="1"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="4">
         <v>1.74713E-5</v>
       </c>
       <c r="C14" s="1">
@@ -3539,7 +3741,7 @@
       <c r="F14" s="1">
         <v>12</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="4">
         <v>3.6856299999999997E-4</v>
       </c>
       <c r="H14" s="1">
@@ -3550,7 +3752,7 @@
       <c r="K14" s="1">
         <v>12</v>
       </c>
-      <c r="L14" s="7">
+      <c r="L14" s="6">
         <v>3.7256599999999998E-5</v>
       </c>
       <c r="M14" s="1">
@@ -3558,11 +3760,11 @@
       </c>
       <c r="N14" s="1"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="4">
         <v>4.06241E-4</v>
       </c>
       <c r="C15" s="1">
@@ -3573,7 +3775,7 @@
       <c r="F15" s="1">
         <v>13</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="4">
         <v>3.4947699999999997E-5</v>
       </c>
       <c r="H15" s="1">
@@ -3584,7 +3786,7 @@
       <c r="K15" s="1">
         <v>13</v>
       </c>
-      <c r="L15" s="7">
+      <c r="L15" s="6">
         <v>3.6853100000000001E-5</v>
       </c>
       <c r="M15" s="1">
@@ -3592,11 +3794,11 @@
       </c>
       <c r="N15" s="1"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="4">
         <v>1.65186E-4</v>
       </c>
       <c r="C16" s="1">
@@ -3607,7 +3809,7 @@
       <c r="F16" s="1">
         <v>14</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="4">
         <v>1.07376E-3</v>
       </c>
       <c r="H16" s="1">
@@ -3618,7 +3820,7 @@
       <c r="K16" s="1">
         <v>14</v>
       </c>
-      <c r="L16" s="7">
+      <c r="L16" s="6">
         <v>1.63339E-4</v>
       </c>
       <c r="M16" s="1">
@@ -3626,11 +3828,11 @@
       </c>
       <c r="N16" s="1"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="4">
         <v>4.8192200000000003E-5</v>
       </c>
       <c r="C17" s="1">
@@ -3641,7 +3843,7 @@
       <c r="F17" s="1">
         <v>15</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="4">
         <v>2.9792300000000001E-4</v>
       </c>
       <c r="H17" s="1">
@@ -3652,7 +3854,7 @@
       <c r="K17" s="1">
         <v>15</v>
       </c>
-      <c r="L17" s="7">
+      <c r="L17" s="6">
         <v>5.1112999999999997E-5</v>
       </c>
       <c r="M17" s="1">
@@ -3660,11 +3862,11 @@
       </c>
       <c r="N17" s="1"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="4">
         <v>2.3236900000000001E-4</v>
       </c>
       <c r="C18" s="1">
@@ -3675,7 +3877,7 @@
       <c r="F18" s="1">
         <v>16</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="4">
         <v>2.0971999999999998E-5</v>
       </c>
       <c r="H18" s="1">
@@ -3686,7 +3888,7 @@
       <c r="K18" s="1">
         <v>16</v>
       </c>
-      <c r="L18" s="7">
+      <c r="L18" s="6">
         <v>7.31517E-5</v>
       </c>
       <c r="M18" s="1">
@@ -3694,11 +3896,11 @@
       </c>
       <c r="N18" s="1"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="4">
         <v>1.5624000000000001E-4</v>
       </c>
       <c r="C19" s="1">
@@ -3709,7 +3911,7 @@
       <c r="F19" s="1">
         <v>17</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="4">
         <v>1.32779E-4</v>
       </c>
       <c r="H19" s="1">
@@ -3720,7 +3922,7 @@
       <c r="K19" s="1">
         <v>17</v>
       </c>
-      <c r="L19" s="7">
+      <c r="L19" s="6">
         <v>9.5168599999999995E-5</v>
       </c>
       <c r="M19" s="1">
@@ -3728,11 +3930,11 @@
       </c>
       <c r="N19" s="1"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="4">
         <v>9.9892799999999997E-6</v>
       </c>
       <c r="C20" s="1">
@@ -3743,7 +3945,7 @@
       <c r="F20" s="1">
         <v>18</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G20" s="4">
         <v>5.1817300000000003E-4</v>
       </c>
       <c r="H20" s="1">
@@ -3754,7 +3956,7 @@
       <c r="K20" s="1">
         <v>18</v>
       </c>
-      <c r="L20" s="7">
+      <c r="L20" s="6">
         <v>8.4275300000000006E-6</v>
       </c>
       <c r="M20" s="1">
@@ -3762,11 +3964,11 @@
       </c>
       <c r="N20" s="1"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="4">
         <v>1.4459E-4</v>
       </c>
       <c r="C21" s="1">
@@ -3777,7 +3979,7 @@
       <c r="F21" s="1">
         <v>19</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21" s="4">
         <v>1.48942E-3</v>
       </c>
       <c r="H21" s="1">
@@ -3788,7 +3990,7 @@
       <c r="K21" s="1">
         <v>19</v>
       </c>
-      <c r="L21" s="7">
+      <c r="L21" s="6">
         <v>3.5349099999999997E-5</v>
       </c>
       <c r="M21" s="1">
@@ -3796,11 +3998,11 @@
       </c>
       <c r="N21" s="1"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="4">
         <v>4.6699699999999998E-6</v>
       </c>
       <c r="C22" s="1">
@@ -3811,7 +4013,7 @@
       <c r="F22" s="1">
         <v>20</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G22" s="4">
         <v>8.2785600000000002E-5</v>
       </c>
       <c r="H22" s="1">
@@ -3822,7 +4024,7 @@
       <c r="K22" s="1">
         <v>20</v>
       </c>
-      <c r="L22" s="7">
+      <c r="L22" s="6">
         <v>4.4493199999999996E-6</v>
       </c>
       <c r="M22" s="1">
@@ -3830,19 +4032,19 @@
       </c>
       <c r="N22" s="1"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A23" s="1"/>
-      <c r="B23" s="6"/>
+      <c r="B23" s="5"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="6"/>
+      <c r="G23" s="5"/>
       <c r="K23" s="1"/>
-      <c r="L23" s="8"/>
+      <c r="L23" s="7"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="4">
         <f t="shared" ref="B24:M24" si="0">AVERAGE(B3:B22)</f>
         <v>1.1955558500000001E-4</v>
       </c>
@@ -3853,7 +4055,7 @@
       <c r="F24" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G24" s="5">
         <f t="shared" si="0"/>
         <v>3.5300484050000008E-4</v>
       </c>
@@ -3864,7 +4066,7 @@
       <c r="K24" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L24" s="8">
+      <c r="L24" s="7">
         <f t="shared" si="0"/>
         <v>4.1551708999999995E-5</v>
       </c>
